--- a/Local_files/GUI_files/Results/Campussamling Hesthagen Study Case 3_substitutions.xlsx
+++ b/Local_files/GUI_files/Results/Campussamling Hesthagen Study Case 3_substitutions.xlsx
@@ -448,7 +448,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N0</t>
+          <t>S751</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N1</t>
+          <t>S169</t>
         </is>
       </c>
     </row>
@@ -472,7 +472,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N2</t>
+          <t>S180</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S952</t>
+          <t>N4</t>
         </is>
       </c>
     </row>
@@ -508,7 +508,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>N5</t>
+          <t>S255</t>
         </is>
       </c>
     </row>
@@ -532,7 +532,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>N7</t>
+          <t>S229</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>N8</t>
+          <t>S480</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>N9</t>
+          <t>S919</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S693</t>
+          <t>N10</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>N12</t>
+          <t>S87</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>N13</t>
+          <t>S654</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S96</t>
+          <t>N15</t>
         </is>
       </c>
     </row>
@@ -664,7 +664,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>N18</t>
+          <t>S454</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>N19</t>
+          <t>S411</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>N20</t>
+          <t>S557</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>N21</t>
+          <t>S760</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>N22</t>
+          <t>S238</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S890</t>
+          <t>N23</t>
         </is>
       </c>
     </row>
@@ -772,7 +772,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>N27</t>
+          <t>S802</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S120</t>
+          <t>N28</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>N29</t>
+          <t>S39</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>N30</t>
+          <t>S833</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>N31</t>
+          <t>S381</t>
         </is>
       </c>
     </row>
@@ -856,7 +856,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S505</t>
+          <t>N34</t>
         </is>
       </c>
     </row>
@@ -928,7 +928,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>N40</t>
+          <t>S490</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>S395</t>
+          <t>N44</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>N46</t>
+          <t>S608</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>N48</t>
+          <t>S434</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>N49</t>
+          <t>S822</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S492</t>
+          <t>N51</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>N52</t>
+          <t>S605</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>N53</t>
+          <t>S102</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>N55</t>
+          <t>S155</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S252</t>
+          <t>N56</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>S245</t>
+          <t>N60</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>N63</t>
+          <t>S872</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>N65</t>
+          <t>S751</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>N69</t>
+          <t>S918</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>S403</t>
+          <t>N71</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>N74</t>
+          <t>S473</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>N75</t>
+          <t>S936</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>N76</t>
+          <t>S990</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>N86</t>
+          <t>S375</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>N88</t>
+          <t>S636</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>N89</t>
+          <t>S927</t>
         </is>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>N90</t>
+          <t>S170</t>
         </is>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>N91</t>
+          <t>S391</t>
         </is>
       </c>
     </row>
@@ -1552,7 +1552,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>N92</t>
+          <t>S993</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>S166</t>
+          <t>N97</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>N99</t>
+          <t>S42</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>N101</t>
+          <t>S541</t>
         </is>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>N102</t>
+          <t>S103</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>S701</t>
+          <t>N104</t>
         </is>
       </c>
     </row>
@@ -1708,7 +1708,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>N105</t>
+          <t>S145</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>N106</t>
+          <t>S969</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>N107</t>
+          <t>S143</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>N108</t>
+          <t>S567</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>N110</t>
+          <t>S28</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>N112</t>
+          <t>S479</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>N113</t>
+          <t>S675</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>N114</t>
+          <t>S417</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>N116</t>
+          <t>S173</t>
         </is>
       </c>
     </row>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>N117</t>
+          <t>S732</t>
         </is>
       </c>
     </row>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>S526</t>
+          <t>N118</t>
         </is>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>N122</t>
+          <t>S84</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>N125</t>
+          <t>S579</t>
         </is>
       </c>
     </row>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>N126</t>
+          <t>S440</t>
         </is>
       </c>
     </row>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>N128</t>
+          <t>S72</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>N129</t>
+          <t>S905</t>
         </is>
       </c>
     </row>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>N130</t>
+          <t>S553</t>
         </is>
       </c>
     </row>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>N132</t>
+          <t>S174</t>
         </is>
       </c>
     </row>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>N134</t>
+          <t>S603</t>
         </is>
       </c>
     </row>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>N140</t>
+          <t>S38</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>N141</t>
+          <t>S532</t>
         </is>
       </c>
     </row>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>N142</t>
+          <t>S669</t>
         </is>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>N143</t>
+          <t>S111</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>N144</t>
+          <t>S80</t>
         </is>
       </c>
     </row>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>S520</t>
+          <t>N145</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>N146</t>
+          <t>S926</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>N147</t>
+          <t>S267</t>
         </is>
       </c>
     </row>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>N148</t>
+          <t>S34</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>N149</t>
+          <t>S518</t>
         </is>
       </c>
     </row>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>N153</t>
+          <t>S150</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>N154</t>
+          <t>S61</t>
         </is>
       </c>
     </row>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>N155</t>
+          <t>S692</t>
         </is>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>N157</t>
+          <t>S888</t>
         </is>
       </c>
     </row>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>S336</t>
+          <t>N158</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>N159</t>
+          <t>S634</t>
         </is>
       </c>
     </row>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>N161</t>
+          <t>S190</t>
         </is>
       </c>
     </row>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>S347</t>
+          <t>N166</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>S437</t>
+          <t>N168</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>N169</t>
+          <t>S369</t>
         </is>
       </c>
     </row>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>N170</t>
+          <t>S329</t>
         </is>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>S376</t>
+          <t>N171</t>
         </is>
       </c>
     </row>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>N172</t>
+          <t>S667</t>
         </is>
       </c>
     </row>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>N173</t>
+          <t>S461</t>
         </is>
       </c>
     </row>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>N175</t>
+          <t>S451</t>
         </is>
       </c>
     </row>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>N177</t>
+          <t>S481</t>
         </is>
       </c>
     </row>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>N178</t>
+          <t>S849</t>
         </is>
       </c>
     </row>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>N181</t>
+          <t>S734</t>
         </is>
       </c>
     </row>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>S874</t>
+          <t>N182</t>
         </is>
       </c>
     </row>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>N183</t>
+          <t>S850</t>
         </is>
       </c>
     </row>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>N185</t>
+          <t>S705</t>
         </is>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>N186</t>
+          <t>S308</t>
         </is>
       </c>
     </row>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>N190</t>
+          <t>S872</t>
         </is>
       </c>
     </row>
@@ -2752,7 +2752,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>N192</t>
+          <t>S192</t>
         </is>
       </c>
     </row>
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>N194</t>
+          <t>S835</t>
         </is>
       </c>
     </row>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>N196</t>
+          <t>S997</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>S189</t>
+          <t>N197</t>
         </is>
       </c>
     </row>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>N198</t>
+          <t>S60</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N201</t>
+          <t>S33</t>
         </is>
       </c>
     </row>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>N205</t>
+          <t>S409</t>
         </is>
       </c>
     </row>
@@ -2932,7 +2932,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>S597</t>
+          <t>N207</t>
         </is>
       </c>
     </row>
@@ -2992,7 +2992,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>N212</t>
+          <t>S466</t>
         </is>
       </c>
     </row>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>N213</t>
+          <t>S715</t>
         </is>
       </c>
     </row>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>N215</t>
+          <t>S162</t>
         </is>
       </c>
     </row>
@@ -3040,7 +3040,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>S952</t>
+          <t>N216</t>
         </is>
       </c>
     </row>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>S219</t>
+          <t>N217</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>N218</t>
+          <t>S610</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>N220</t>
+          <t>S599</t>
         </is>
       </c>
     </row>
@@ -3100,7 +3100,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>S368</t>
+          <t>N221</t>
         </is>
       </c>
     </row>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>N222</t>
+          <t>S970</t>
         </is>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>N223</t>
+          <t>S511</t>
         </is>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>N224</t>
+          <t>S421</t>
         </is>
       </c>
     </row>
@@ -3148,7 +3148,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>S336</t>
+          <t>N225</t>
         </is>
       </c>
     </row>
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>N229</t>
+          <t>S624</t>
         </is>
       </c>
     </row>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>N231</t>
+          <t>S216</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>N236</t>
+          <t>S873</t>
         </is>
       </c>
     </row>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>N243</t>
+          <t>S999</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>N244</t>
+          <t>S528</t>
         </is>
       </c>
     </row>
@@ -3388,7 +3388,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>N245</t>
+          <t>S953</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>N248</t>
+          <t>S143</t>
         </is>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>N251</t>
+          <t>S86</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>S217</t>
+          <t>N252</t>
         </is>
       </c>
     </row>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>N254</t>
+          <t>S13</t>
         </is>
       </c>
     </row>
@@ -3520,7 +3520,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>N256</t>
+          <t>S923</t>
         </is>
       </c>
     </row>
@@ -3532,7 +3532,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>N257</t>
+          <t>S397</t>
         </is>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>N258</t>
+          <t>S567</t>
         </is>
       </c>
     </row>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>N259</t>
+          <t>S371</t>
         </is>
       </c>
     </row>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>N260</t>
+          <t>S70</t>
         </is>
       </c>
     </row>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>S214</t>
+          <t>N261</t>
         </is>
       </c>
     </row>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>N263</t>
+          <t>S112</t>
         </is>
       </c>
     </row>
@@ -3616,7 +3616,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>N264</t>
+          <t>S387</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>N265</t>
+          <t>S152</t>
         </is>
       </c>
     </row>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>N266</t>
+          <t>S723</t>
         </is>
       </c>
     </row>
@@ -3652,7 +3652,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>N267</t>
+          <t>S796</t>
         </is>
       </c>
     </row>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>N268</t>
+          <t>S547</t>
         </is>
       </c>
     </row>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>N270</t>
+          <t>S736</t>
         </is>
       </c>
     </row>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>N272</t>
+          <t>S542</t>
         </is>
       </c>
     </row>
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>N274</t>
+          <t>S313</t>
         </is>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>N275</t>
+          <t>S355</t>
         </is>
       </c>
     </row>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>N276</t>
+          <t>S861</t>
         </is>
       </c>
     </row>
@@ -3820,7 +3820,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>N281</t>
+          <t>S299</t>
         </is>
       </c>
     </row>
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>S478</t>
+          <t>N282</t>
         </is>
       </c>
     </row>
@@ -3844,7 +3844,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>S191</t>
+          <t>N283</t>
         </is>
       </c>
     </row>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>S236</t>
+          <t>N284</t>
         </is>
       </c>
     </row>
@@ -3868,7 +3868,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>N285</t>
+          <t>S88</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>N286</t>
+          <t>S504</t>
         </is>
       </c>
     </row>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>S943</t>
+          <t>N288</t>
         </is>
       </c>
     </row>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>S925</t>
+          <t>N292</t>
         </is>
       </c>
     </row>
@@ -3964,7 +3964,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>N293</t>
+          <t>S129</t>
         </is>
       </c>
     </row>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>N294</t>
+          <t>S176</t>
         </is>
       </c>
     </row>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>N295</t>
+          <t>S446</t>
         </is>
       </c>
     </row>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>S82</t>
+          <t>N296</t>
         </is>
       </c>
     </row>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>N298</t>
+          <t>S587</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4036,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>S121</t>
+          <t>N299</t>
         </is>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>S265</t>
+          <t>N301</t>
         </is>
       </c>
     </row>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>N303</t>
+          <t>S897</t>
         </is>
       </c>
     </row>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>S324</t>
+          <t>N304</t>
         </is>
       </c>
     </row>
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>N306</t>
+          <t>S814</t>
         </is>
       </c>
     </row>
@@ -4144,7 +4144,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>N308</t>
+          <t>S781</t>
         </is>
       </c>
     </row>
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>S122</t>
+          <t>N310</t>
         </is>
       </c>
     </row>
@@ -4192,7 +4192,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>N312</t>
+          <t>S60</t>
         </is>
       </c>
     </row>
@@ -4204,7 +4204,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>N313</t>
+          <t>S137</t>
         </is>
       </c>
     </row>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>N315</t>
+          <t>S564</t>
         </is>
       </c>
     </row>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>N316</t>
+          <t>S360</t>
         </is>
       </c>
     </row>
@@ -4276,7 +4276,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>N319</t>
+          <t>S629</t>
         </is>
       </c>
     </row>
@@ -4300,7 +4300,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>N321</t>
+          <t>S328</t>
         </is>
       </c>
     </row>
@@ -4324,7 +4324,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>S132</t>
+          <t>N323</t>
         </is>
       </c>
     </row>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>N324</t>
+          <t>S883</t>
         </is>
       </c>
     </row>
@@ -4348,7 +4348,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>N325</t>
+          <t>S199</t>
         </is>
       </c>
     </row>
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>N326</t>
+          <t>S507</t>
         </is>
       </c>
     </row>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>N327</t>
+          <t>S627</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>S727</t>
+          <t>N328</t>
         </is>
       </c>
     </row>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>N330</t>
+          <t>S899</t>
         </is>
       </c>
     </row>
@@ -4432,7 +4432,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>N332</t>
+          <t>S700</t>
         </is>
       </c>
     </row>
@@ -4444,7 +4444,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>N333</t>
+          <t>S950</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>N334</t>
+          <t>S695</t>
         </is>
       </c>
     </row>
@@ -4468,7 +4468,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>N335</t>
+          <t>S471</t>
         </is>
       </c>
     </row>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>S226</t>
+          <t>N336</t>
         </is>
       </c>
     </row>
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>S361</t>
+          <t>N338</t>
         </is>
       </c>
     </row>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>N339</t>
+          <t>S711</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>N340</t>
+          <t>S140</t>
         </is>
       </c>
     </row>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>N343</t>
+          <t>S768</t>
         </is>
       </c>
     </row>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>N346</t>
+          <t>S241</t>
         </is>
       </c>
     </row>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>N349</t>
+          <t>S852</t>
         </is>
       </c>
     </row>
@@ -4660,7 +4660,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>S986</t>
+          <t>N351</t>
         </is>
       </c>
     </row>
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>S948</t>
+          <t>N354</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>N356</t>
+          <t>S838</t>
         </is>
       </c>
     </row>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>N359</t>
+          <t>S632</t>
         </is>
       </c>
     </row>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>N360</t>
+          <t>S351</t>
         </is>
       </c>
     </row>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>N361</t>
+          <t>S848</t>
         </is>
       </c>
     </row>
@@ -4852,7 +4852,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>N367</t>
+          <t>S8</t>
         </is>
       </c>
     </row>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>N368</t>
+          <t>S965</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>N370</t>
+          <t>S332</t>
         </is>
       </c>
     </row>
@@ -4912,7 +4912,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>N372</t>
+          <t>S911</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>N373</t>
+          <t>S517</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>S774</t>
+          <t>N374</t>
         </is>
       </c>
     </row>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>N375</t>
+          <t>S718</t>
         </is>
       </c>
     </row>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>N376</t>
+          <t>S418</t>
         </is>
       </c>
     </row>
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>N378</t>
+          <t>S609</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>N379</t>
+          <t>S123</t>
         </is>
       </c>
     </row>
@@ -5008,7 +5008,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>N380</t>
+          <t>S876</t>
         </is>
       </c>
     </row>
@@ -5020,7 +5020,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>N381</t>
+          <t>S720</t>
         </is>
       </c>
     </row>
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>N382</t>
+          <t>S215</t>
         </is>
       </c>
     </row>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>N383</t>
+          <t>S907</t>
         </is>
       </c>
     </row>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>N384</t>
+          <t>S668</t>
         </is>
       </c>
     </row>
@@ -5068,7 +5068,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>N385</t>
+          <t>S499</t>
         </is>
       </c>
     </row>
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>N386</t>
+          <t>S71</t>
         </is>
       </c>
     </row>
@@ -5092,7 +5092,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>N387</t>
+          <t>S165</t>
         </is>
       </c>
     </row>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>N388</t>
+          <t>S653</t>
         </is>
       </c>
     </row>
@@ -5116,7 +5116,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>S639</t>
+          <t>N389</t>
         </is>
       </c>
     </row>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>N391</t>
+          <t>S678</t>
         </is>
       </c>
     </row>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>N395</t>
+          <t>S928</t>
         </is>
       </c>
     </row>
@@ -5200,7 +5200,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>N396</t>
+          <t>S523</t>
         </is>
       </c>
     </row>
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>N398</t>
+          <t>S658</t>
         </is>
       </c>
     </row>
@@ -5236,7 +5236,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>N399</t>
+          <t>S676</t>
         </is>
       </c>
     </row>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>N400</t>
+          <t>S687</t>
         </is>
       </c>
     </row>
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>N402</t>
+          <t>S158</t>
         </is>
       </c>
     </row>
@@ -5308,7 +5308,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>N405</t>
+          <t>S127</t>
         </is>
       </c>
     </row>
@@ -5344,7 +5344,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>S745</t>
+          <t>N408</t>
         </is>
       </c>
     </row>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>N411</t>
+          <t>S935</t>
         </is>
       </c>
     </row>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>N412</t>
+          <t>S385</t>
         </is>
       </c>
     </row>
@@ -5404,7 +5404,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>N413</t>
+          <t>S628</t>
         </is>
       </c>
     </row>
@@ -5428,7 +5428,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>N415</t>
+          <t>S104</t>
         </is>
       </c>
     </row>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>N418</t>
+          <t>S612</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5476,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>N419</t>
+          <t>S746</t>
         </is>
       </c>
     </row>
@@ -5488,7 +5488,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>S983</t>
+          <t>N420</t>
         </is>
       </c>
     </row>
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>N426</t>
+          <t>S509</t>
         </is>
       </c>
     </row>
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>N430</t>
+          <t>S300</t>
         </is>
       </c>
     </row>
@@ -5632,7 +5632,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>N432</t>
+          <t>S498</t>
         </is>
       </c>
     </row>
@@ -5644,7 +5644,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>S251</t>
+          <t>N433</t>
         </is>
       </c>
     </row>
@@ -5668,7 +5668,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>N435</t>
+          <t>S264</t>
         </is>
       </c>
     </row>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>N439</t>
+          <t>S27</t>
         </is>
       </c>
     </row>
@@ -5728,7 +5728,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>N440</t>
+          <t>S714</t>
         </is>
       </c>
     </row>
@@ -5740,7 +5740,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>S834</t>
+          <t>N441</t>
         </is>
       </c>
     </row>
@@ -5764,7 +5764,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>N443</t>
+          <t>S218</t>
         </is>
       </c>
     </row>
@@ -5776,7 +5776,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>N444</t>
+          <t>S500</t>
         </is>
       </c>
     </row>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>N445</t>
+          <t>S404</t>
         </is>
       </c>
     </row>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>S389</t>
+          <t>N448</t>
         </is>
       </c>
     </row>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>N449</t>
+          <t>S878</t>
         </is>
       </c>
     </row>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>N450</t>
+          <t>S961</t>
         </is>
       </c>
     </row>
@@ -5860,7 +5860,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>N451</t>
+          <t>S548</t>
         </is>
       </c>
     </row>
@@ -5872,7 +5872,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>N452</t>
+          <t>S222</t>
         </is>
       </c>
     </row>
@@ -5884,7 +5884,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>N453</t>
+          <t>S263</t>
         </is>
       </c>
     </row>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>N454</t>
+          <t>S839</t>
         </is>
       </c>
     </row>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>N455</t>
+          <t>S896</t>
         </is>
       </c>
     </row>
@@ -5920,7 +5920,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>S710</t>
+          <t>N456</t>
         </is>
       </c>
     </row>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>N457</t>
+          <t>S168</t>
         </is>
       </c>
     </row>
@@ -5968,7 +5968,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>N460</t>
+          <t>S488</t>
         </is>
       </c>
     </row>
@@ -5980,7 +5980,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>N461</t>
+          <t>S128</t>
         </is>
       </c>
     </row>
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>N462</t>
+          <t>S144</t>
         </is>
       </c>
     </row>
@@ -6028,7 +6028,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>S600</t>
+          <t>N465</t>
         </is>
       </c>
     </row>
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>N466</t>
+          <t>S748</t>
         </is>
       </c>
     </row>
@@ -6052,7 +6052,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>N467</t>
+          <t>S212</t>
         </is>
       </c>
     </row>
@@ -6064,7 +6064,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>N468</t>
+          <t>S408</t>
         </is>
       </c>
     </row>
@@ -6076,7 +6076,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>N469</t>
+          <t>S55</t>
         </is>
       </c>
     </row>
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>N470</t>
+          <t>S66</t>
         </is>
       </c>
     </row>
@@ -6100,7 +6100,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>N471</t>
+          <t>S871</t>
         </is>
       </c>
     </row>
@@ -6112,7 +6112,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>S524</t>
+          <t>N472</t>
         </is>
       </c>
     </row>
@@ -6124,7 +6124,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>S618</t>
+          <t>N473</t>
         </is>
       </c>
     </row>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>N475</t>
+          <t>S893</t>
         </is>
       </c>
     </row>
@@ -6160,7 +6160,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>N476</t>
+          <t>S571</t>
         </is>
       </c>
     </row>
@@ -6172,7 +6172,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>N477</t>
+          <t>S528</t>
         </is>
       </c>
     </row>
@@ -6196,7 +6196,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>N479</t>
+          <t>S708</t>
         </is>
       </c>
     </row>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>N482</t>
+          <t>S306</t>
         </is>
       </c>
     </row>
@@ -6256,7 +6256,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>N484</t>
+          <t>S841</t>
         </is>
       </c>
     </row>
@@ -6268,7 +6268,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>N485</t>
+          <t>S515</t>
         </is>
       </c>
     </row>
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>N486</t>
+          <t>S133</t>
         </is>
       </c>
     </row>
@@ -6316,7 +6316,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>N489</t>
+          <t>S882</t>
         </is>
       </c>
     </row>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>N490</t>
+          <t>S617</t>
         </is>
       </c>
     </row>
@@ -6352,7 +6352,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>N492</t>
+          <t>S660</t>
         </is>
       </c>
     </row>
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>N494</t>
+          <t>S665</t>
         </is>
       </c>
     </row>
@@ -6388,7 +6388,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>N495</t>
+          <t>S724</t>
         </is>
       </c>
     </row>
@@ -6412,7 +6412,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>N497</t>
+          <t>S869</t>
         </is>
       </c>
     </row>
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>N498</t>
+          <t>S90</t>
         </is>
       </c>
     </row>
@@ -6436,7 +6436,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>N499</t>
+          <t>S487</t>
         </is>
       </c>
     </row>
@@ -6460,7 +6460,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>N501</t>
+          <t>S929</t>
         </is>
       </c>
     </row>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>N502</t>
+          <t>S567</t>
         </is>
       </c>
     </row>
@@ -6532,7 +6532,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>N507</t>
+          <t>S433</t>
         </is>
       </c>
     </row>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>N509</t>
+          <t>S629</t>
         </is>
       </c>
     </row>
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>N510</t>
+          <t>S739</t>
         </is>
       </c>
     </row>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>N511</t>
+          <t>S279</t>
         </is>
       </c>
     </row>
@@ -6592,7 +6592,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>N512</t>
+          <t>S221</t>
         </is>
       </c>
     </row>
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>S425</t>
+          <t>N514</t>
         </is>
       </c>
     </row>
@@ -6640,7 +6640,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>N516</t>
+          <t>S344</t>
         </is>
       </c>
     </row>
@@ -6688,7 +6688,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>N520</t>
+          <t>S682</t>
         </is>
       </c>
     </row>
@@ -6700,7 +6700,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>S697</t>
+          <t>N521</t>
         </is>
       </c>
     </row>
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>N522</t>
+          <t>S73</t>
         </is>
       </c>
     </row>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>N523</t>
+          <t>S836</t>
         </is>
       </c>
     </row>
@@ -6748,7 +6748,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>N525</t>
+          <t>S142</t>
         </is>
       </c>
     </row>
@@ -6796,7 +6796,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>N529</t>
+          <t>S294</t>
         </is>
       </c>
     </row>
@@ -6820,7 +6820,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>N531</t>
+          <t>S41</t>
         </is>
       </c>
     </row>
@@ -6832,7 +6832,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>N532</t>
+          <t>S436</t>
         </is>
       </c>
     </row>
@@ -6844,7 +6844,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>N533</t>
+          <t>S193</t>
         </is>
       </c>
     </row>
@@ -6880,7 +6880,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>N536</t>
+          <t>S31</t>
         </is>
       </c>
     </row>
@@ -6892,7 +6892,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>N537</t>
+          <t>S374</t>
         </is>
       </c>
     </row>
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>N538</t>
+          <t>S914</t>
         </is>
       </c>
     </row>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>N539</t>
+          <t>S577</t>
         </is>
       </c>
     </row>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>S820</t>
+          <t>N540</t>
         </is>
       </c>
     </row>
@@ -6940,7 +6940,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>N541</t>
+          <t>S827</t>
         </is>
       </c>
     </row>
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>N542</t>
+          <t>S900</t>
         </is>
       </c>
     </row>
@@ -6976,7 +6976,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>N544</t>
+          <t>S845</t>
         </is>
       </c>
     </row>
@@ -7012,7 +7012,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>N547</t>
+          <t>S5</t>
         </is>
       </c>
     </row>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>N548</t>
+          <t>S224</t>
         </is>
       </c>
     </row>
@@ -7084,7 +7084,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>N553</t>
+          <t>S721</t>
         </is>
       </c>
     </row>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>N554</t>
+          <t>S971</t>
         </is>
       </c>
     </row>
@@ -7108,7 +7108,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>N555</t>
+          <t>S673</t>
         </is>
       </c>
     </row>
@@ -7120,7 +7120,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>N556</t>
+          <t>S891</t>
         </is>
       </c>
     </row>
@@ -7156,7 +7156,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>N559</t>
+          <t>S291</t>
         </is>
       </c>
     </row>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>S333</t>
+          <t>N562</t>
         </is>
       </c>
     </row>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>N563</t>
+          <t>S759</t>
         </is>
       </c>
     </row>
@@ -7216,7 +7216,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>N564</t>
+          <t>S902</t>
         </is>
       </c>
     </row>
@@ -7228,7 +7228,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>N565</t>
+          <t>S846</t>
         </is>
       </c>
     </row>
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>N566</t>
+          <t>S194</t>
         </is>
       </c>
     </row>
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>S363</t>
+          <t>N569</t>
         </is>
       </c>
     </row>
@@ -7312,7 +7312,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>N572</t>
+          <t>S963</t>
         </is>
       </c>
     </row>
@@ -7324,7 +7324,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>S81</t>
+          <t>N573</t>
         </is>
       </c>
     </row>
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>N574</t>
+          <t>S607</t>
         </is>
       </c>
     </row>
@@ -7348,7 +7348,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>S424</t>
+          <t>N575</t>
         </is>
       </c>
     </row>
@@ -7360,7 +7360,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>N576</t>
+          <t>S966</t>
         </is>
       </c>
     </row>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>N577</t>
+          <t>S713</t>
         </is>
       </c>
     </row>
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>N578</t>
+          <t>S186</t>
         </is>
       </c>
     </row>
@@ -7408,7 +7408,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>S378</t>
+          <t>N580</t>
         </is>
       </c>
     </row>
@@ -7420,7 +7420,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>S246</t>
+          <t>N581</t>
         </is>
       </c>
     </row>
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>S916</t>
+          <t>N582</t>
         </is>
       </c>
     </row>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>N583</t>
+          <t>S554</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>N589</t>
+          <t>S116</t>
         </is>
       </c>
     </row>
@@ -7552,7 +7552,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>N592</t>
+          <t>S35</t>
         </is>
       </c>
     </row>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>N593</t>
+          <t>S551</t>
         </is>
       </c>
     </row>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>N595</t>
+          <t>S762</t>
         </is>
       </c>
     </row>
@@ -7612,7 +7612,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>S183</t>
+          <t>N597</t>
         </is>
       </c>
     </row>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>N599</t>
+          <t>S462</t>
         </is>
       </c>
     </row>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>N601</t>
+          <t>S139</t>
         </is>
       </c>
     </row>
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>N602</t>
+          <t>S615</t>
         </is>
       </c>
     </row>
@@ -7756,7 +7756,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>N609</t>
+          <t>S296</t>
         </is>
       </c>
     </row>
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>N610</t>
+          <t>S32</t>
         </is>
       </c>
     </row>
@@ -7780,7 +7780,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>S765</t>
+          <t>N611</t>
         </is>
       </c>
     </row>
@@ -7792,7 +7792,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>N612</t>
+          <t>S149</t>
         </is>
       </c>
     </row>
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>N614</t>
+          <t>S594</t>
         </is>
       </c>
     </row>
@@ -7876,7 +7876,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>N619</t>
+          <t>S917</t>
         </is>
       </c>
     </row>
@@ -7900,7 +7900,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>S661</t>
+          <t>N621</t>
         </is>
       </c>
     </row>
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>N622</t>
+          <t>S77</t>
         </is>
       </c>
     </row>
@@ -7936,7 +7936,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>N624</t>
+          <t>S704</t>
         </is>
       </c>
     </row>
@@ -7948,7 +7948,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>N625</t>
+          <t>S230</t>
         </is>
       </c>
     </row>
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>N626</t>
+          <t>S719</t>
         </is>
       </c>
     </row>
@@ -7984,7 +7984,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>N628</t>
+          <t>S748</t>
         </is>
       </c>
     </row>
@@ -7996,7 +7996,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>N629</t>
+          <t>S922</t>
         </is>
       </c>
     </row>
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>N630</t>
+          <t>S196</t>
         </is>
       </c>
     </row>
@@ -8020,7 +8020,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>N631</t>
+          <t>S656</t>
         </is>
       </c>
     </row>
@@ -8044,7 +8044,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>N633</t>
+          <t>S237</t>
         </is>
       </c>
     </row>
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>N634</t>
+          <t>S747</t>
         </is>
       </c>
     </row>
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>N637</t>
+          <t>S268</t>
         </is>
       </c>
     </row>
@@ -8128,7 +8128,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>N640</t>
+          <t>S991</t>
         </is>
       </c>
     </row>
@@ -8140,7 +8140,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>N641</t>
+          <t>S514</t>
         </is>
       </c>
     </row>
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>S126</t>
+          <t>N642</t>
         </is>
       </c>
     </row>
@@ -8164,7 +8164,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>S400</t>
+          <t>N643</t>
         </is>
       </c>
     </row>
@@ -8188,7 +8188,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>S754</t>
+          <t>N645</t>
         </is>
       </c>
     </row>
@@ -8236,7 +8236,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>N649</t>
+          <t>S383</t>
         </is>
       </c>
     </row>
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>S50</t>
+          <t>N650</t>
         </is>
       </c>
     </row>
@@ -8272,7 +8272,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>N652</t>
+          <t>S854</t>
         </is>
       </c>
     </row>
@@ -8284,7 +8284,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>S138</t>
+          <t>N653</t>
         </is>
       </c>
     </row>
@@ -8296,7 +8296,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>N654</t>
+          <t>S310</t>
         </is>
       </c>
     </row>
@@ -8308,7 +8308,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>N655</t>
+          <t>S375</t>
         </is>
       </c>
     </row>
@@ -8320,7 +8320,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>S601</t>
+          <t>N656</t>
         </is>
       </c>
     </row>
@@ -8356,7 +8356,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>N659</t>
+          <t>S537</t>
         </is>
       </c>
     </row>
@@ -8368,7 +8368,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>N660</t>
+          <t>S465</t>
         </is>
       </c>
     </row>
@@ -8380,7 +8380,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>N661</t>
+          <t>S164</t>
         </is>
       </c>
     </row>
@@ -8392,7 +8392,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>N662</t>
+          <t>S445</t>
         </is>
       </c>
     </row>
@@ -8404,7 +8404,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>N663</t>
+          <t>S527</t>
         </is>
       </c>
     </row>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>S733</t>
+          <t>N664</t>
         </is>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>N665</t>
+          <t>S881</t>
         </is>
       </c>
     </row>
@@ -8440,7 +8440,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>N666</t>
+          <t>S777</t>
         </is>
       </c>
     </row>
@@ -8476,7 +8476,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>N669</t>
+          <t>S483</t>
         </is>
       </c>
     </row>
@@ -8488,7 +8488,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>N670</t>
+          <t>S386</t>
         </is>
       </c>
     </row>
@@ -8500,7 +8500,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>N671</t>
+          <t>S676</t>
         </is>
       </c>
     </row>
@@ -8512,7 +8512,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>N672</t>
+          <t>S175</t>
         </is>
       </c>
     </row>
@@ -8524,7 +8524,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>N673</t>
+          <t>S686</t>
         </is>
       </c>
     </row>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>N674</t>
+          <t>S248</t>
         </is>
       </c>
     </row>
@@ -8560,7 +8560,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>N676</t>
+          <t>S239</t>
         </is>
       </c>
     </row>
@@ -8620,7 +8620,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>S45</t>
+          <t>N681</t>
         </is>
       </c>
     </row>
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>N683</t>
+          <t>S843</t>
         </is>
       </c>
     </row>
@@ -8668,7 +8668,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>N685</t>
+          <t>S573</t>
         </is>
       </c>
     </row>
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>N686</t>
+          <t>S816</t>
         </is>
       </c>
     </row>
@@ -8704,7 +8704,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>N688</t>
+          <t>S211</t>
         </is>
       </c>
     </row>
@@ -8752,7 +8752,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>N692</t>
+          <t>S589</t>
         </is>
       </c>
     </row>
@@ -8776,7 +8776,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>N694</t>
+          <t>S109</t>
         </is>
       </c>
     </row>
@@ -8800,7 +8800,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>N696</t>
+          <t>S545</t>
         </is>
       </c>
     </row>
@@ -8812,7 +8812,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>N697</t>
+          <t>S540</t>
         </is>
       </c>
     </row>
@@ -8836,7 +8836,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>N699</t>
+          <t>S2</t>
         </is>
       </c>
     </row>
@@ -8848,7 +8848,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>N700</t>
+          <t>S244</t>
         </is>
       </c>
     </row>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>S639</t>
+          <t>N701</t>
         </is>
       </c>
     </row>
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>N702</t>
+          <t>S670</t>
         </is>
       </c>
     </row>
@@ -8884,7 +8884,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>S106</t>
+          <t>N703</t>
         </is>
       </c>
     </row>
@@ -8896,7 +8896,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>N704</t>
+          <t>S521</t>
         </is>
       </c>
     </row>
@@ -8944,7 +8944,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>N708</t>
+          <t>S546</t>
         </is>
       </c>
     </row>
@@ -8956,7 +8956,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>N709</t>
+          <t>S972</t>
         </is>
       </c>
     </row>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>S940</t>
+          <t>N713</t>
         </is>
       </c>
     </row>
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>N714</t>
+          <t>S572</t>
         </is>
       </c>
     </row>
@@ -9052,7 +9052,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>N717</t>
+          <t>S749</t>
         </is>
       </c>
     </row>
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>N718</t>
+          <t>S621</t>
         </is>
       </c>
     </row>
@@ -9076,7 +9076,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>N719</t>
+          <t>S69</t>
         </is>
       </c>
     </row>
@@ -9088,7 +9088,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>N720</t>
+          <t>S438</t>
         </is>
       </c>
     </row>
@@ -9124,7 +9124,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>N723</t>
+          <t>S775</t>
         </is>
       </c>
     </row>
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>N726</t>
+          <t>S503</t>
         </is>
       </c>
     </row>
@@ -9172,7 +9172,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>N727</t>
+          <t>S40</t>
         </is>
       </c>
     </row>
@@ -9184,7 +9184,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>S470</t>
+          <t>N728</t>
         </is>
       </c>
     </row>
@@ -9196,7 +9196,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>N729</t>
+          <t>S581</t>
         </is>
       </c>
     </row>
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>S568</t>
+          <t>N730</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9220,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>N731</t>
+          <t>S414</t>
         </is>
       </c>
     </row>
@@ -9232,7 +9232,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>N732</t>
+          <t>S280</t>
         </is>
       </c>
     </row>
@@ -9244,7 +9244,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>N733</t>
+          <t>S19</t>
         </is>
       </c>
     </row>
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>S561</t>
+          <t>N734</t>
         </is>
       </c>
     </row>
@@ -9292,7 +9292,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>N737</t>
+          <t>S51</t>
         </is>
       </c>
     </row>
@@ -9304,7 +9304,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>S706</t>
+          <t>N738</t>
         </is>
       </c>
     </row>
@@ -9328,7 +9328,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>N740</t>
+          <t>S844</t>
         </is>
       </c>
     </row>
@@ -9340,7 +9340,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>S574</t>
+          <t>N741</t>
         </is>
       </c>
     </row>
@@ -9352,7 +9352,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>S677</t>
+          <t>N742</t>
         </is>
       </c>
     </row>
@@ -9364,7 +9364,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>S994</t>
+          <t>N743</t>
         </is>
       </c>
     </row>
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B752" t="inlineStr">
         <is>
-          <t>N750</t>
+          <t>S644</t>
         </is>
       </c>
     </row>
@@ -9460,7 +9460,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>N751</t>
+          <t>S75</t>
         </is>
       </c>
     </row>
@@ -9508,7 +9508,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>N755</t>
+          <t>S375</t>
         </is>
       </c>
     </row>
@@ -9532,7 +9532,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>S206</t>
+          <t>N757</t>
         </is>
       </c>
     </row>
@@ -9556,7 +9556,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>S95</t>
+          <t>N759</t>
         </is>
       </c>
     </row>
@@ -9568,7 +9568,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>N760</t>
+          <t>S809</t>
         </is>
       </c>
     </row>
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>N762</t>
+          <t>S731</t>
         </is>
       </c>
     </row>
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>N766</t>
+          <t>S849</t>
         </is>
       </c>
     </row>
@@ -9664,7 +9664,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>N768</t>
+          <t>S831</t>
         </is>
       </c>
     </row>
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>N770</t>
+          <t>S338</t>
         </is>
       </c>
     </row>
@@ -9700,7 +9700,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>N771</t>
+          <t>S824</t>
         </is>
       </c>
     </row>
@@ -9712,7 +9712,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>N772</t>
+          <t>S171</t>
         </is>
       </c>
     </row>
@@ -9724,7 +9724,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>N773</t>
+          <t>S475</t>
         </is>
       </c>
     </row>
@@ -9748,7 +9748,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>N775</t>
+          <t>S107</t>
         </is>
       </c>
     </row>
@@ -9784,7 +9784,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>S251</t>
+          <t>N778</t>
         </is>
       </c>
     </row>
@@ -9796,7 +9796,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>N779</t>
+          <t>S567</t>
         </is>
       </c>
     </row>
@@ -9808,7 +9808,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>N780</t>
+          <t>S197</t>
         </is>
       </c>
     </row>
@@ -9820,7 +9820,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>S955</t>
+          <t>N781</t>
         </is>
       </c>
     </row>
@@ -9868,7 +9868,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>N785</t>
+          <t>S868</t>
         </is>
       </c>
     </row>
@@ -9880,7 +9880,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>N786</t>
+          <t>S491</t>
         </is>
       </c>
     </row>
@@ -9904,7 +9904,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>S257</t>
+          <t>N788</t>
         </is>
       </c>
     </row>
@@ -9916,7 +9916,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>N789</t>
+          <t>S271</t>
         </is>
       </c>
     </row>
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>N790</t>
+          <t>S702</t>
         </is>
       </c>
     </row>
@@ -9940,7 +9940,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>N791</t>
+          <t>S649</t>
         </is>
       </c>
     </row>
@@ -9952,7 +9952,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>N792</t>
+          <t>S147</t>
         </is>
       </c>
     </row>
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>N798</t>
+          <t>S819</t>
         </is>
       </c>
     </row>
@@ -10048,7 +10048,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>N800</t>
+          <t>S325</t>
         </is>
       </c>
     </row>
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>N802</t>
+          <t>S712</t>
         </is>
       </c>
     </row>
@@ -10096,7 +10096,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>N804</t>
+          <t>S341</t>
         </is>
       </c>
     </row>
@@ -10108,7 +10108,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>N805</t>
+          <t>S629</t>
         </is>
       </c>
     </row>
@@ -10132,7 +10132,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>N807</t>
+          <t>S125</t>
         </is>
       </c>
     </row>
@@ -10144,7 +10144,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>N808</t>
+          <t>S563</t>
         </is>
       </c>
     </row>
@@ -10168,7 +10168,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>N810</t>
+          <t>S412</t>
         </is>
       </c>
     </row>
@@ -10180,7 +10180,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>N811</t>
+          <t>S312</t>
         </is>
       </c>
     </row>
@@ -10192,7 +10192,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>S525</t>
+          <t>N812</t>
         </is>
       </c>
     </row>
@@ -10204,7 +10204,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>S132</t>
+          <t>N813</t>
         </is>
       </c>
     </row>
@@ -10228,7 +10228,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>N815</t>
+          <t>S25</t>
         </is>
       </c>
     </row>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>N816</t>
+          <t>S345</t>
         </is>
       </c>
     </row>
@@ -10264,7 +10264,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>N818</t>
+          <t>S101</t>
         </is>
       </c>
     </row>
@@ -10288,7 +10288,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>N820</t>
+          <t>S918</t>
         </is>
       </c>
     </row>
@@ -10300,7 +10300,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>S590</t>
+          <t>N821</t>
         </is>
       </c>
     </row>
@@ -10312,7 +10312,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>N822</t>
+          <t>S764</t>
         </is>
       </c>
     </row>
@@ -10324,7 +10324,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>N823</t>
+          <t>S828</t>
         </is>
       </c>
     </row>
@@ -10336,7 +10336,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>N824</t>
+          <t>S259</t>
         </is>
       </c>
     </row>
@@ -10384,7 +10384,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>N828</t>
+          <t>S757</t>
         </is>
       </c>
     </row>
@@ -10420,7 +10420,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>N831</t>
+          <t>S577</t>
         </is>
       </c>
     </row>
@@ -10444,7 +10444,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>N833</t>
+          <t>S539</t>
         </is>
       </c>
     </row>
@@ -10456,7 +10456,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>N834</t>
+          <t>S304</t>
         </is>
       </c>
     </row>
@@ -10468,7 +10468,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>S761</t>
+          <t>N835</t>
         </is>
       </c>
     </row>
@@ -10480,7 +10480,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>N836</t>
+          <t>S558</t>
         </is>
       </c>
     </row>
@@ -10528,7 +10528,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>S630</t>
+          <t>N840</t>
         </is>
       </c>
     </row>
@@ -10552,7 +10552,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>N842</t>
+          <t>S866</t>
         </is>
       </c>
     </row>
@@ -10588,7 +10588,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>N845</t>
+          <t>S604</t>
         </is>
       </c>
     </row>
@@ -10600,7 +10600,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>S742</t>
+          <t>N846</t>
         </is>
       </c>
     </row>
@@ -10612,7 +10612,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>N847</t>
+          <t>S234</t>
         </is>
       </c>
     </row>
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>S512</t>
+          <t>N850</t>
         </is>
       </c>
     </row>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>N851</t>
+          <t>S858</t>
         </is>
       </c>
     </row>
@@ -10672,7 +10672,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>N852</t>
+          <t>S247</t>
         </is>
       </c>
     </row>
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>S214</t>
+          <t>N854</t>
         </is>
       </c>
     </row>
@@ -10708,7 +10708,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>N855</t>
+          <t>S856</t>
         </is>
       </c>
     </row>
@@ -10720,7 +10720,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>N856</t>
+          <t>S501</t>
         </is>
       </c>
     </row>
@@ -10756,7 +10756,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>N859</t>
+          <t>S939</t>
         </is>
       </c>
     </row>
@@ -10768,7 +10768,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>N860</t>
+          <t>S908</t>
         </is>
       </c>
     </row>
@@ -10780,7 +10780,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>N861</t>
+          <t>S611</t>
         </is>
       </c>
     </row>
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>N862</t>
+          <t>S286</t>
         </is>
       </c>
     </row>
@@ -10804,7 +10804,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>S453</t>
+          <t>N863</t>
         </is>
       </c>
     </row>
@@ -10816,7 +10816,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>N864</t>
+          <t>S158</t>
         </is>
       </c>
     </row>
@@ -10828,7 +10828,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>S550</t>
+          <t>N865</t>
         </is>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>N866</t>
+          <t>S799</t>
         </is>
       </c>
     </row>
@@ -10864,7 +10864,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>N868</t>
+          <t>S382</t>
         </is>
       </c>
     </row>
@@ -10876,7 +10876,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>N869</t>
+          <t>S789</t>
         </is>
       </c>
     </row>
@@ -10900,7 +10900,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>N871</t>
+          <t>S141</t>
         </is>
       </c>
     </row>
@@ -10924,7 +10924,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>N873</t>
+          <t>S477</t>
         </is>
       </c>
     </row>
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>N874</t>
+          <t>S48</t>
         </is>
       </c>
     </row>
@@ -10972,7 +10972,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>N877</t>
+          <t>S200</t>
         </is>
       </c>
     </row>
@@ -11008,7 +11008,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>S447</t>
+          <t>N880</t>
         </is>
       </c>
     </row>
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>N882</t>
+          <t>S3</t>
         </is>
       </c>
     </row>
@@ -11044,7 +11044,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>N883</t>
+          <t>S52</t>
         </is>
       </c>
     </row>
@@ -11056,7 +11056,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>S258</t>
+          <t>N884</t>
         </is>
       </c>
     </row>
@@ -11068,7 +11068,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>N885</t>
+          <t>S658</t>
         </is>
       </c>
     </row>
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>N886</t>
+          <t>S459</t>
         </is>
       </c>
     </row>
@@ -11092,7 +11092,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>N887</t>
+          <t>S117</t>
         </is>
       </c>
     </row>
@@ -11140,7 +11140,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>N891</t>
+          <t>S148</t>
         </is>
       </c>
     </row>
@@ -11152,7 +11152,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>N892</t>
+          <t>S5</t>
         </is>
       </c>
     </row>
@@ -11164,7 +11164,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>N893</t>
+          <t>S554</t>
         </is>
       </c>
     </row>
@@ -11200,7 +11200,7 @@
       </c>
       <c r="B898" t="inlineStr">
         <is>
-          <t>N896</t>
+          <t>S744</t>
         </is>
       </c>
     </row>
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>N898</t>
+          <t>S379</t>
         </is>
       </c>
     </row>
@@ -11236,7 +11236,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>N899</t>
+          <t>S779</t>
         </is>
       </c>
     </row>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>N900</t>
+          <t>S179</t>
         </is>
       </c>
     </row>
@@ -11260,7 +11260,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>N901</t>
+          <t>S510</t>
         </is>
       </c>
     </row>
@@ -11284,7 +11284,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>N903</t>
+          <t>S786</t>
         </is>
       </c>
     </row>
@@ -11296,7 +11296,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>N904</t>
+          <t>S911</t>
         </is>
       </c>
     </row>
@@ -11308,7 +11308,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>N905</t>
+          <t>S575</t>
         </is>
       </c>
     </row>
@@ -11356,7 +11356,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>S29</t>
+          <t>N909</t>
         </is>
       </c>
     </row>
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>S431</t>
+          <t>N910</t>
         </is>
       </c>
     </row>
@@ -11392,7 +11392,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>N912</t>
+          <t>S485</t>
         </is>
       </c>
     </row>
@@ -11404,7 +11404,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>N913</t>
+          <t>S585</t>
         </is>
       </c>
     </row>
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>S793</t>
+          <t>N914</t>
         </is>
       </c>
     </row>
@@ -11476,7 +11476,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>N919</t>
+          <t>S807</t>
         </is>
       </c>
     </row>
@@ -11500,7 +11500,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>S76</t>
+          <t>N921</t>
         </is>
       </c>
     </row>
@@ -11524,7 +11524,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>N923</t>
+          <t>S946</t>
         </is>
       </c>
     </row>
@@ -11536,7 +11536,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>N924</t>
+          <t>S448</t>
         </is>
       </c>
     </row>
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>S910</t>
+          <t>N926</t>
         </is>
       </c>
     </row>
@@ -11584,7 +11584,7 @@
       </c>
       <c r="B930" t="inlineStr">
         <is>
-          <t>N928</t>
+          <t>S769</t>
         </is>
       </c>
     </row>
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>N930</t>
+          <t>S276</t>
         </is>
       </c>
     </row>
@@ -11620,7 +11620,7 @@
       </c>
       <c r="B933" t="inlineStr">
         <is>
-          <t>S755</t>
+          <t>N931</t>
         </is>
       </c>
     </row>
@@ -11632,7 +11632,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>N932</t>
+          <t>S495</t>
         </is>
       </c>
     </row>
@@ -11644,7 +11644,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>N933</t>
+          <t>S457</t>
         </is>
       </c>
     </row>
@@ -11680,7 +11680,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>N936</t>
+          <t>S578</t>
         </is>
       </c>
     </row>
@@ -11692,7 +11692,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>S432</t>
+          <t>N937</t>
         </is>
       </c>
     </row>
@@ -11740,7 +11740,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>N941</t>
+          <t>S663</t>
         </is>
       </c>
     </row>
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>S625</t>
+          <t>N942</t>
         </is>
       </c>
     </row>
@@ -11764,7 +11764,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>N943</t>
+          <t>S786</t>
         </is>
       </c>
     </row>
@@ -11824,7 +11824,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>S690</t>
+          <t>N948</t>
         </is>
       </c>
     </row>
@@ -11836,7 +11836,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>N949</t>
+          <t>S788</t>
         </is>
       </c>
     </row>
@@ -11860,7 +11860,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>N951</t>
+          <t>S794</t>
         </is>
       </c>
     </row>
@@ -11884,7 +11884,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>N953</t>
+          <t>S506</t>
         </is>
       </c>
     </row>
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>N954</t>
+          <t>S295</t>
         </is>
       </c>
     </row>
@@ -11920,7 +11920,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>N956</t>
+          <t>S210</t>
         </is>
       </c>
     </row>
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>S342</t>
+          <t>N958</t>
         </is>
       </c>
     </row>
@@ -11980,7 +11980,7 @@
       </c>
       <c r="B963" t="inlineStr">
         <is>
-          <t>N961</t>
+          <t>S327</t>
         </is>
       </c>
     </row>
@@ -11992,7 +11992,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>S962</t>
+          <t>N962</t>
         </is>
       </c>
     </row>
@@ -12004,7 +12004,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>N963</t>
+          <t>S674</t>
         </is>
       </c>
     </row>
@@ -12016,7 +12016,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>S439</t>
+          <t>N964</t>
         </is>
       </c>
     </row>
@@ -12028,7 +12028,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>N965</t>
+          <t>S203</t>
         </is>
       </c>
     </row>
@@ -12076,7 +12076,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>N969</t>
+          <t>S903</t>
         </is>
       </c>
     </row>
@@ -12088,7 +12088,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>N970</t>
+          <t>S428</t>
         </is>
       </c>
     </row>
@@ -12100,7 +12100,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>N971</t>
+          <t>S699</t>
         </is>
       </c>
     </row>
@@ -12124,7 +12124,7 @@
       </c>
       <c r="B975" t="inlineStr">
         <is>
-          <t>N973</t>
+          <t>S396</t>
         </is>
       </c>
     </row>
@@ -12136,7 +12136,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>N974</t>
+          <t>S631</t>
         </is>
       </c>
     </row>
@@ -12160,7 +12160,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>N976</t>
+          <t>S441</t>
         </is>
       </c>
     </row>
@@ -12184,7 +12184,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>N978</t>
+          <t>S380</t>
         </is>
       </c>
     </row>
@@ -12196,7 +12196,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>N979</t>
+          <t>S124</t>
         </is>
       </c>
     </row>
@@ -12208,7 +12208,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>N980</t>
+          <t>S683</t>
         </is>
       </c>
     </row>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B983" t="inlineStr">
         <is>
-          <t>N981</t>
+          <t>S78</t>
         </is>
       </c>
     </row>
@@ -12244,7 +12244,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>N983</t>
+          <t>S419</t>
         </is>
       </c>
     </row>
@@ -12280,7 +12280,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>N986</t>
+          <t>S619</t>
         </is>
       </c>
     </row>
@@ -12328,7 +12328,7 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>N990</t>
+          <t>S298</t>
         </is>
       </c>
     </row>
@@ -12352,7 +12352,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>N992</t>
+          <t>S758</t>
         </is>
       </c>
     </row>
@@ -12388,7 +12388,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>N995</t>
+          <t>S726</t>
         </is>
       </c>
     </row>
@@ -12400,7 +12400,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>N996</t>
+          <t>S20</t>
         </is>
       </c>
     </row>
@@ -12424,7 +12424,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>N998</t>
+          <t>S694</t>
         </is>
       </c>
     </row>
@@ -12436,7 +12436,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>N999</t>
+          <t>S194</t>
         </is>
       </c>
     </row>
